--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H2">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I2">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J2">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.394124</v>
+        <v>8.827620333333334</v>
       </c>
       <c r="N2">
-        <v>40.182372</v>
+        <v>26.482861</v>
       </c>
       <c r="O2">
-        <v>0.1981570880876885</v>
+        <v>0.1351548127836251</v>
       </c>
       <c r="P2">
-        <v>0.1981570880876885</v>
+        <v>0.1351548127836251</v>
       </c>
       <c r="Q2">
-        <v>6.889615926624001</v>
+        <v>7.751536357240112</v>
       </c>
       <c r="R2">
-        <v>62.00654333961602</v>
+        <v>69.76382721516102</v>
       </c>
       <c r="S2">
-        <v>0.01152735097075205</v>
+        <v>0.01365651036870614</v>
       </c>
       <c r="T2">
-        <v>0.01152735097075205</v>
+        <v>0.01365651036870614</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H3">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I3">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J3">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>27.156609</v>
       </c>
       <c r="O3">
-        <v>0.133921276767233</v>
+        <v>0.1385932737868883</v>
       </c>
       <c r="P3">
-        <v>0.133921276767233</v>
+        <v>0.1385932737868883</v>
       </c>
       <c r="Q3">
-        <v>4.656235970328001</v>
+        <v>7.948742471701001</v>
       </c>
       <c r="R3">
-        <v>41.906123732952</v>
+        <v>71.538682245309</v>
       </c>
       <c r="S3">
-        <v>0.007790574511591401</v>
+        <v>0.01400394437698399</v>
       </c>
       <c r="T3">
-        <v>0.007790574511591401</v>
+        <v>0.01400394437698399</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H4">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I4">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J4">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.841584666666667</v>
+        <v>6.609217</v>
       </c>
       <c r="N4">
-        <v>17.524754</v>
+        <v>19.827651</v>
       </c>
       <c r="O4">
-        <v>0.08642233022214496</v>
+        <v>0.101190066241108</v>
       </c>
       <c r="P4">
-        <v>0.08642233022214496</v>
+        <v>0.101190066241108</v>
       </c>
       <c r="Q4">
-        <v>3.004770954501334</v>
+        <v>5.803555650772334</v>
       </c>
       <c r="R4">
-        <v>27.04293859051201</v>
+        <v>52.232000856951</v>
       </c>
       <c r="S4">
-        <v>0.005027428197471542</v>
+        <v>0.01022459474709272</v>
       </c>
       <c r="T4">
-        <v>0.005027428197471542</v>
+        <v>0.01022459474709272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H5">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I5">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J5">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.449952999999999</v>
+        <v>0.396823</v>
       </c>
       <c r="N5">
-        <v>10.349859</v>
+        <v>1.190469</v>
       </c>
       <c r="O5">
-        <v>0.05103974254078766</v>
+        <v>0.006075537488933289</v>
       </c>
       <c r="P5">
-        <v>0.05103974254078766</v>
+        <v>0.00607553748893329</v>
       </c>
       <c r="Q5">
-        <v>1.774573024328</v>
+        <v>0.3484504085743333</v>
       </c>
       <c r="R5">
-        <v>15.971157218952</v>
+        <v>3.136053677169</v>
       </c>
       <c r="S5">
-        <v>0.002969124301342809</v>
+        <v>0.0006138933494429937</v>
       </c>
       <c r="T5">
-        <v>0.002969124301342809</v>
+        <v>0.0006138933494429938</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H6">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I6">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J6">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.50814</v>
+        <v>37.35485966666667</v>
       </c>
       <c r="N6">
-        <v>94.52441999999999</v>
+        <v>112.064579</v>
       </c>
       <c r="O6">
-        <v>0.4661418151317115</v>
+        <v>0.5719195971470289</v>
       </c>
       <c r="P6">
-        <v>0.4661418151317115</v>
+        <v>0.5719195971470289</v>
       </c>
       <c r="Q6">
-        <v>16.20703102064</v>
+        <v>32.80131472491989</v>
       </c>
       <c r="R6">
-        <v>145.86327918576</v>
+        <v>295.211832524279</v>
       </c>
       <c r="S6">
-        <v>0.02711677062386399</v>
+        <v>0.05778873683920285</v>
       </c>
       <c r="T6">
-        <v>0.02711677062386398</v>
+        <v>0.05778873683920285</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H7">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I7">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J7">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.347459333333334</v>
+        <v>3.074156666666667</v>
       </c>
       <c r="N7">
-        <v>13.042378</v>
+        <v>9.22247</v>
       </c>
       <c r="O7">
-        <v>0.06431774725043436</v>
+        <v>0.04706671255241639</v>
       </c>
       <c r="P7">
-        <v>0.06431774725043435</v>
+        <v>0.0470667125524164</v>
       </c>
       <c r="Q7">
-        <v>2.236228742042667</v>
+        <v>2.699417993718889</v>
       </c>
       <c r="R7">
-        <v>20.12605867838401</v>
+        <v>24.29476194347</v>
       </c>
       <c r="S7">
-        <v>0.003741542900932161</v>
+        <v>0.004755783643620729</v>
       </c>
       <c r="T7">
-        <v>0.003741542900932161</v>
+        <v>0.00475578364362073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.345897</v>
       </c>
       <c r="I8">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J8">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.394124</v>
+        <v>8.827620333333334</v>
       </c>
       <c r="N8">
-        <v>40.182372</v>
+        <v>26.482861</v>
       </c>
       <c r="O8">
-        <v>0.1981570880876885</v>
+        <v>0.1351548127836251</v>
       </c>
       <c r="P8">
-        <v>0.1981570880876885</v>
+        <v>0.1351548127836251</v>
       </c>
       <c r="Q8">
-        <v>1.544329103076</v>
+        <v>1.017815796813</v>
       </c>
       <c r="R8">
-        <v>13.898961927684</v>
+        <v>9.160342171317001</v>
       </c>
       <c r="S8">
-        <v>0.00258389201591198</v>
+        <v>0.001793168649673802</v>
       </c>
       <c r="T8">
-        <v>0.00258389201591198</v>
+        <v>0.001793168649673803</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.345897</v>
       </c>
       <c r="I9">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J9">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>27.156609</v>
       </c>
       <c r="O9">
-        <v>0.133921276767233</v>
+        <v>0.1385932737868883</v>
       </c>
       <c r="P9">
-        <v>0.133921276767233</v>
+        <v>0.1385932737868883</v>
       </c>
       <c r="Q9">
         <v>1.043709953697</v>
@@ -1013,10 +1013,10 @@
         <v>9.393389583273001</v>
       </c>
       <c r="S9">
-        <v>0.00174628180671722</v>
+        <v>0.001838788486268513</v>
       </c>
       <c r="T9">
-        <v>0.00174628180671722</v>
+        <v>0.001838788486268513</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.345897</v>
       </c>
       <c r="I10">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J10">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.841584666666667</v>
+        <v>6.609217</v>
       </c>
       <c r="N10">
-        <v>17.524754</v>
+        <v>19.827651</v>
       </c>
       <c r="O10">
-        <v>0.08642233022214496</v>
+        <v>0.101190066241108</v>
       </c>
       <c r="P10">
-        <v>0.08642233022214496</v>
+        <v>0.101190066241108</v>
       </c>
       <c r="Q10">
-        <v>0.6735288704820001</v>
+        <v>0.7620361108830001</v>
       </c>
       <c r="R10">
-        <v>6.061759834338001</v>
+        <v>6.858324997947</v>
       </c>
       <c r="S10">
-        <v>0.001126913860172853</v>
+        <v>0.001342540829326311</v>
       </c>
       <c r="T10">
-        <v>0.001126913860172853</v>
+        <v>0.001342540829326311</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.345897</v>
       </c>
       <c r="I11">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J11">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.449952999999999</v>
+        <v>0.396823</v>
       </c>
       <c r="N11">
-        <v>10.349859</v>
+        <v>1.190469</v>
       </c>
       <c r="O11">
-        <v>0.05103974254078766</v>
+        <v>0.006075537488933289</v>
       </c>
       <c r="P11">
-        <v>0.05103974254078766</v>
+        <v>0.00607553748893329</v>
       </c>
       <c r="Q11">
-        <v>0.3977761309469999</v>
+        <v>0.045753295077</v>
       </c>
       <c r="R11">
-        <v>3.579985178523</v>
+        <v>0.411779655693</v>
       </c>
       <c r="S11">
-        <v>0.0006655385609369887</v>
+        <v>8.060729122916598E-05</v>
       </c>
       <c r="T11">
-        <v>0.0006655385609369887</v>
+        <v>8.0607291229166E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.345897</v>
       </c>
       <c r="I12">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J12">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>31.50814</v>
+        <v>37.35485966666667</v>
       </c>
       <c r="N12">
-        <v>94.52441999999999</v>
+        <v>112.064579</v>
       </c>
       <c r="O12">
-        <v>0.4661418151317115</v>
+        <v>0.5719195971470289</v>
       </c>
       <c r="P12">
-        <v>0.4661418151317115</v>
+        <v>0.5719195971470289</v>
       </c>
       <c r="Q12">
-        <v>3.63285703386</v>
+        <v>4.306977964707</v>
       </c>
       <c r="R12">
-        <v>32.69571330474</v>
+        <v>38.762801682363</v>
       </c>
       <c r="S12">
-        <v>0.006078309517086516</v>
+        <v>0.007587952442211329</v>
       </c>
       <c r="T12">
-        <v>0.006078309517086515</v>
+        <v>0.007587952442211329</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.345897</v>
       </c>
       <c r="I13">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J13">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.347459333333334</v>
+        <v>3.074156666666667</v>
       </c>
       <c r="N13">
-        <v>13.042378</v>
+        <v>9.22247</v>
       </c>
       <c r="O13">
-        <v>0.06431774725043436</v>
+        <v>0.04706671255241639</v>
       </c>
       <c r="P13">
-        <v>0.06431774725043435</v>
+        <v>0.0470667125524164</v>
       </c>
       <c r="Q13">
-        <v>0.5012577136740001</v>
+        <v>0.35444718951</v>
       </c>
       <c r="R13">
-        <v>4.511319423066</v>
+        <v>3.19002470559</v>
       </c>
       <c r="S13">
-        <v>0.0008386786221257936</v>
+        <v>0.0006244583648480106</v>
       </c>
       <c r="T13">
-        <v>0.0008386786221257934</v>
+        <v>0.0006244583648480107</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H14">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I14">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J14">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.394124</v>
+        <v>8.827620333333334</v>
       </c>
       <c r="N14">
-        <v>40.182372</v>
+        <v>26.482861</v>
       </c>
       <c r="O14">
-        <v>0.1981570880876885</v>
+        <v>0.1351548127836251</v>
       </c>
       <c r="P14">
-        <v>0.1981570880876885</v>
+        <v>0.1351548127836251</v>
       </c>
       <c r="Q14">
-        <v>56.99663645161199</v>
+        <v>31.08017091053567</v>
       </c>
       <c r="R14">
-        <v>512.969728064508</v>
+        <v>279.721538194821</v>
       </c>
       <c r="S14">
-        <v>0.09536384023833962</v>
+        <v>0.05475645817031438</v>
       </c>
       <c r="T14">
-        <v>0.09536384023833962</v>
+        <v>0.05475645817031439</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H15">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I15">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J15">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>27.156609</v>
       </c>
       <c r="O15">
-        <v>0.133921276767233</v>
+        <v>0.1385932737868883</v>
       </c>
       <c r="P15">
-        <v>0.133921276767233</v>
+        <v>0.1385932737868883</v>
       </c>
       <c r="Q15">
-        <v>38.520258844639</v>
+        <v>31.870878643761</v>
       </c>
       <c r="R15">
-        <v>346.682329601751</v>
+        <v>286.837907793849</v>
       </c>
       <c r="S15">
-        <v>0.06445011564003877</v>
+        <v>0.05614951212242828</v>
       </c>
       <c r="T15">
-        <v>0.06445011564003877</v>
+        <v>0.05614951212242828</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H16">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I16">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J16">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.841584666666667</v>
+        <v>6.609217</v>
       </c>
       <c r="N16">
-        <v>17.524754</v>
+        <v>19.827651</v>
       </c>
       <c r="O16">
-        <v>0.08642233022214496</v>
+        <v>0.101190066241108</v>
       </c>
       <c r="P16">
-        <v>0.08642233022214496</v>
+        <v>0.101190066241108</v>
       </c>
       <c r="Q16">
-        <v>24.85796589215622</v>
+        <v>23.269645293779</v>
       </c>
       <c r="R16">
-        <v>223.721693029406</v>
+        <v>209.426807644011</v>
       </c>
       <c r="S16">
-        <v>0.04159106985202873</v>
+        <v>0.04099602163818675</v>
       </c>
       <c r="T16">
-        <v>0.04159106985202873</v>
+        <v>0.04099602163818675</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H17">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I17">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J17">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.449952999999999</v>
+        <v>0.396823</v>
       </c>
       <c r="N17">
-        <v>10.349859</v>
+        <v>1.190469</v>
       </c>
       <c r="O17">
-        <v>0.05103974254078766</v>
+        <v>0.006075537488933289</v>
       </c>
       <c r="P17">
-        <v>0.05103974254078766</v>
+        <v>0.00607553748893329</v>
       </c>
       <c r="Q17">
-        <v>14.68074484872233</v>
+        <v>1.397129259701</v>
       </c>
       <c r="R17">
-        <v>132.126703638501</v>
+        <v>12.574163337309</v>
       </c>
       <c r="S17">
-        <v>0.02456306711224866</v>
+        <v>0.002461435945366929</v>
       </c>
       <c r="T17">
-        <v>0.02456306711224866</v>
+        <v>0.00246143594536693</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H18">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I18">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J18">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>31.50814</v>
+        <v>37.35485966666667</v>
       </c>
       <c r="N18">
-        <v>94.52441999999999</v>
+        <v>112.064579</v>
       </c>
       <c r="O18">
-        <v>0.4661418151317115</v>
+        <v>0.5719195971470289</v>
       </c>
       <c r="P18">
-        <v>0.4661418151317115</v>
+        <v>0.5719195971470289</v>
       </c>
       <c r="Q18">
-        <v>134.0780480191533</v>
+        <v>131.5185043012243</v>
       </c>
       <c r="R18">
-        <v>1206.70243217238</v>
+        <v>1183.666538711019</v>
       </c>
       <c r="S18">
-        <v>0.224332493051971</v>
+        <v>0.2317068171897059</v>
       </c>
       <c r="T18">
-        <v>0.224332493051971</v>
+        <v>0.2317068171897059</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H19">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I19">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J19">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.347459333333334</v>
+        <v>3.074156666666667</v>
       </c>
       <c r="N19">
-        <v>13.042378</v>
+        <v>9.22247</v>
       </c>
       <c r="O19">
-        <v>0.06431774725043436</v>
+        <v>0.04706671255241639</v>
       </c>
       <c r="P19">
-        <v>0.06431774725043435</v>
+        <v>0.0470667125524164</v>
       </c>
       <c r="Q19">
-        <v>18.49994513341578</v>
+        <v>10.82345082796333</v>
       </c>
       <c r="R19">
-        <v>166.499506200742</v>
+        <v>97.41105745166999</v>
       </c>
       <c r="S19">
-        <v>0.03095315657124561</v>
+        <v>0.01906855127102692</v>
       </c>
       <c r="T19">
-        <v>0.0309531565712456</v>
+        <v>0.01906855127102692</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H20">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I20">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J20">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.394124</v>
+        <v>8.827620333333334</v>
       </c>
       <c r="N20">
-        <v>40.182372</v>
+        <v>26.482861</v>
       </c>
       <c r="O20">
-        <v>0.1981570880876885</v>
+        <v>0.1351548127836251</v>
       </c>
       <c r="P20">
-        <v>0.1981570880876885</v>
+        <v>0.1351548127836251</v>
       </c>
       <c r="Q20">
-        <v>1.598463687576</v>
+        <v>0.4096015834666666</v>
       </c>
       <c r="R20">
-        <v>14.386173188184</v>
+        <v>3.6864142512</v>
       </c>
       <c r="S20">
-        <v>0.002674467218047104</v>
+        <v>0.0007216283345463918</v>
       </c>
       <c r="T20">
-        <v>0.002674467218047104</v>
+        <v>0.000721628334546392</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H21">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I21">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J21">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>27.156609</v>
       </c>
       <c r="O21">
-        <v>0.133921276767233</v>
+        <v>0.1385932737868883</v>
       </c>
       <c r="P21">
-        <v>0.133921276767233</v>
+        <v>0.1385932737868883</v>
       </c>
       <c r="Q21">
-        <v>1.080295940822</v>
+        <v>0.4200222192</v>
       </c>
       <c r="R21">
-        <v>9.722663467398</v>
+        <v>3.7801999728</v>
       </c>
       <c r="S21">
-        <v>0.001807495598413726</v>
+        <v>0.000739987213790744</v>
       </c>
       <c r="T21">
-        <v>0.001807495598413726</v>
+        <v>0.000739987213790744</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H22">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I22">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J22">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.841584666666667</v>
+        <v>6.609217</v>
       </c>
       <c r="N22">
-        <v>17.524754</v>
+        <v>19.827651</v>
       </c>
       <c r="O22">
-        <v>0.08642233022214496</v>
+        <v>0.101190066241108</v>
       </c>
       <c r="P22">
-        <v>0.08642233022214496</v>
+        <v>0.101190066241108</v>
       </c>
       <c r="Q22">
-        <v>0.6971386085097778</v>
+        <v>0.3066676688</v>
       </c>
       <c r="R22">
-        <v>6.274247476588001</v>
+        <v>2.7600090192</v>
       </c>
       <c r="S22">
-        <v>0.00116641645937029</v>
+        <v>0.0005402813075632991</v>
       </c>
       <c r="T22">
-        <v>0.00116641645937029</v>
+        <v>0.0005402813075632991</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H23">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I23">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J23">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.449952999999999</v>
+        <v>0.396823</v>
       </c>
       <c r="N23">
-        <v>10.349859</v>
+        <v>1.190469</v>
       </c>
       <c r="O23">
-        <v>0.05103974254078766</v>
+        <v>0.006075537488933289</v>
       </c>
       <c r="P23">
-        <v>0.05103974254078766</v>
+        <v>0.00607553748893329</v>
       </c>
       <c r="Q23">
-        <v>0.4117196909886666</v>
+        <v>0.0184125872</v>
       </c>
       <c r="R23">
-        <v>3.705477218897999</v>
+        <v>0.1657132848</v>
       </c>
       <c r="S23">
-        <v>0.0006888682083504124</v>
+        <v>3.243894841267748E-05</v>
       </c>
       <c r="T23">
-        <v>0.0006888682083504124</v>
+        <v>3.243894841267749E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H24">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I24">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J24">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>31.50814</v>
+        <v>37.35485966666667</v>
       </c>
       <c r="N24">
-        <v>94.52441999999999</v>
+        <v>112.064579</v>
       </c>
       <c r="O24">
-        <v>0.4661418151317115</v>
+        <v>0.5719195971470289</v>
       </c>
       <c r="P24">
-        <v>0.4661418151317115</v>
+        <v>0.5719195971470289</v>
       </c>
       <c r="Q24">
-        <v>3.760202433026666</v>
+        <v>1.733265488533333</v>
       </c>
       <c r="R24">
-        <v>33.84182189724</v>
+        <v>15.5993893968</v>
       </c>
       <c r="S24">
-        <v>0.00629137728840189</v>
+        <v>0.003053634405490123</v>
       </c>
       <c r="T24">
-        <v>0.006291377288401889</v>
+        <v>0.003053634405490123</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H25">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I25">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J25">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.347459333333334</v>
+        <v>3.074156666666667</v>
       </c>
       <c r="N25">
-        <v>13.042378</v>
+        <v>9.22247</v>
       </c>
       <c r="O25">
-        <v>0.06431774725043436</v>
+        <v>0.04706671255241639</v>
       </c>
       <c r="P25">
-        <v>0.06431774725043435</v>
+        <v>0.0470667125524164</v>
       </c>
       <c r="Q25">
-        <v>0.5188286951462223</v>
+        <v>0.1426408693333333</v>
       </c>
       <c r="R25">
-        <v>4.669458256316</v>
+        <v>1.283767824</v>
       </c>
       <c r="S25">
-        <v>0.0008680774844844589</v>
+        <v>0.0002513019898606899</v>
       </c>
       <c r="T25">
-        <v>0.0008680774844844587</v>
+        <v>0.00025130198986069</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H26">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I26">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J26">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.394124</v>
+        <v>8.827620333333334</v>
       </c>
       <c r="N26">
-        <v>40.182372</v>
+        <v>26.482861</v>
       </c>
       <c r="O26">
-        <v>0.1981570880876885</v>
+        <v>0.1351548127836251</v>
       </c>
       <c r="P26">
-        <v>0.1981570880876885</v>
+        <v>0.1351548127836251</v>
       </c>
       <c r="Q26">
-        <v>14.43337408116</v>
+        <v>3.628063680796667</v>
       </c>
       <c r="R26">
-        <v>129.90036673044</v>
+        <v>32.65257312717</v>
       </c>
       <c r="S26">
-        <v>0.024149179068566</v>
+        <v>0.006391854077914257</v>
       </c>
       <c r="T26">
-        <v>0.024149179068566</v>
+        <v>0.006391854077914259</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H27">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I27">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J27">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>27.156609</v>
       </c>
       <c r="O27">
-        <v>0.133921276767233</v>
+        <v>0.1385932737868883</v>
       </c>
       <c r="P27">
-        <v>0.133921276767233</v>
+        <v>0.1385932737868883</v>
       </c>
       <c r="Q27">
-        <v>9.75456343077</v>
+        <v>3.72036491097</v>
       </c>
       <c r="R27">
-        <v>87.79107087692999</v>
+        <v>33.48328419873</v>
       </c>
       <c r="S27">
-        <v>0.01632083376352274</v>
+        <v>0.006554468642152108</v>
       </c>
       <c r="T27">
-        <v>0.01632083376352274</v>
+        <v>0.006554468642152108</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H28">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I28">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J28">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.841584666666667</v>
+        <v>6.609217</v>
       </c>
       <c r="N28">
-        <v>17.524754</v>
+        <v>19.827651</v>
       </c>
       <c r="O28">
-        <v>0.08642233022214496</v>
+        <v>0.101190066241108</v>
       </c>
       <c r="P28">
-        <v>0.08642233022214496</v>
+        <v>0.101190066241108</v>
       </c>
       <c r="Q28">
-        <v>6.294833220953334</v>
+        <v>2.71632209483</v>
       </c>
       <c r="R28">
-        <v>56.65349898858</v>
+        <v>24.44689885347</v>
       </c>
       <c r="S28">
-        <v>0.01053219114288645</v>
+        <v>0.004785564969729317</v>
       </c>
       <c r="T28">
-        <v>0.01053219114288645</v>
+        <v>0.004785564969729317</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H29">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I29">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J29">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.449952999999999</v>
+        <v>0.396823</v>
       </c>
       <c r="N29">
-        <v>10.349859</v>
+        <v>1.190469</v>
       </c>
       <c r="O29">
-        <v>0.05103974254078766</v>
+        <v>0.006075537488933289</v>
       </c>
       <c r="P29">
-        <v>0.05103974254078766</v>
+        <v>0.00607553748893329</v>
       </c>
       <c r="Q29">
-        <v>3.717634853269999</v>
+        <v>0.16309028477</v>
       </c>
       <c r="R29">
-        <v>33.45871367943</v>
+        <v>1.46781256293</v>
       </c>
       <c r="S29">
-        <v>0.006220155403603584</v>
+        <v>0.0002873293837958258</v>
       </c>
       <c r="T29">
-        <v>0.006220155403603584</v>
+        <v>0.0002873293837958259</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H30">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I30">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J30">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>31.50814</v>
+        <v>37.35485966666667</v>
       </c>
       <c r="N30">
-        <v>94.52441999999999</v>
+        <v>112.064579</v>
       </c>
       <c r="O30">
-        <v>0.4661418151317115</v>
+        <v>0.5719195971470289</v>
       </c>
       <c r="P30">
-        <v>0.4661418151317115</v>
+        <v>0.5719195971470289</v>
       </c>
       <c r="Q30">
-        <v>33.9528565826</v>
+        <v>15.35247377440333</v>
       </c>
       <c r="R30">
-        <v>305.5757092434</v>
+        <v>138.17226396963</v>
       </c>
       <c r="S30">
-        <v>0.05680817311960432</v>
+        <v>0.02704769836880141</v>
       </c>
       <c r="T30">
-        <v>0.05680817311960431</v>
+        <v>0.02704769836880141</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H31">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I31">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J31">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.347459333333334</v>
+        <v>3.074156666666667</v>
       </c>
       <c r="N31">
-        <v>13.042378</v>
+        <v>9.22247</v>
       </c>
       <c r="O31">
-        <v>0.06431774725043436</v>
+        <v>0.04706671255241639</v>
       </c>
       <c r="P31">
-        <v>0.06431774725043435</v>
+        <v>0.0470667125524164</v>
       </c>
       <c r="Q31">
-        <v>4.684778703006668</v>
+        <v>1.263447648433333</v>
       </c>
       <c r="R31">
-        <v>42.16300832706001</v>
+        <v>11.3710288359</v>
       </c>
       <c r="S31">
-        <v>0.007838330743688443</v>
+        <v>0.002225918207173383</v>
       </c>
       <c r="T31">
-        <v>0.007838330743688442</v>
+        <v>0.002225918207173383</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H32">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I32">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J32">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.394124</v>
+        <v>8.827620333333334</v>
       </c>
       <c r="N32">
-        <v>40.182372</v>
+        <v>26.482861</v>
       </c>
       <c r="O32">
-        <v>0.1981570880876885</v>
+        <v>0.1351548127836251</v>
       </c>
       <c r="P32">
-        <v>0.1981570880876885</v>
+        <v>0.1351548127836251</v>
       </c>
       <c r="Q32">
-        <v>36.97122899457599</v>
+        <v>32.82768368918222</v>
       </c>
       <c r="R32">
-        <v>332.741060951184</v>
+        <v>295.44915320264</v>
       </c>
       <c r="S32">
-        <v>0.06185835857607172</v>
+        <v>0.0578351931824701</v>
       </c>
       <c r="T32">
-        <v>0.06185835857607172</v>
+        <v>0.05783519318247012</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H33">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I33">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J33">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>27.156609</v>
       </c>
       <c r="O33">
-        <v>0.133921276767233</v>
+        <v>0.1385932737868883</v>
       </c>
       <c r="P33">
-        <v>0.133921276767233</v>
+        <v>0.1385932737868883</v>
       </c>
       <c r="Q33">
-        <v>24.986409713572</v>
+        <v>33.66284973224</v>
       </c>
       <c r="R33">
-        <v>224.877687422148</v>
+        <v>302.96564759016</v>
       </c>
       <c r="S33">
-        <v>0.04180597544694914</v>
+        <v>0.05930657294526472</v>
       </c>
       <c r="T33">
-        <v>0.04180597544694914</v>
+        <v>0.05930657294526473</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H34">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I34">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J34">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.841584666666667</v>
+        <v>6.609217</v>
       </c>
       <c r="N34">
-        <v>17.524754</v>
+        <v>19.827651</v>
       </c>
       <c r="O34">
-        <v>0.08642233022214496</v>
+        <v>0.101190066241108</v>
       </c>
       <c r="P34">
-        <v>0.08642233022214496</v>
+        <v>0.101190066241108</v>
       </c>
       <c r="Q34">
-        <v>16.12427691445422</v>
+        <v>24.57800368802667</v>
       </c>
       <c r="R34">
-        <v>145.118492230088</v>
+        <v>221.20203319224</v>
       </c>
       <c r="S34">
-        <v>0.0269783107102151</v>
+        <v>0.04330106274920963</v>
       </c>
       <c r="T34">
-        <v>0.0269783107102151</v>
+        <v>0.04330106274920964</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H35">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I35">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J35">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.449952999999999</v>
+        <v>0.396823</v>
       </c>
       <c r="N35">
-        <v>10.349859</v>
+        <v>1.190469</v>
       </c>
       <c r="O35">
-        <v>0.05103974254078766</v>
+        <v>0.006075537488933289</v>
       </c>
       <c r="P35">
-        <v>0.05103974254078766</v>
+        <v>0.00607553748893329</v>
       </c>
       <c r="Q35">
-        <v>9.522758067905331</v>
+        <v>1.475684208506667</v>
       </c>
       <c r="R35">
-        <v>85.70482261114797</v>
+        <v>13.28115787656</v>
       </c>
       <c r="S35">
-        <v>0.01593298895430521</v>
+        <v>0.002599832570685697</v>
       </c>
       <c r="T35">
-        <v>0.01593298895430521</v>
+        <v>0.002599832570685698</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H36">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I36">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J36">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>31.50814</v>
+        <v>37.35485966666667</v>
       </c>
       <c r="N36">
-        <v>94.52441999999999</v>
+        <v>112.064579</v>
       </c>
       <c r="O36">
-        <v>0.4661418151317115</v>
+        <v>0.5719195971470289</v>
       </c>
       <c r="P36">
-        <v>0.4661418151317115</v>
+        <v>0.5719195971470289</v>
       </c>
       <c r="Q36">
-        <v>86.97057449469332</v>
+        <v>138.9132598692178</v>
       </c>
       <c r="R36">
-        <v>782.7351704522398</v>
+        <v>1250.21933882296</v>
       </c>
       <c r="S36">
-        <v>0.1455146915307838</v>
+        <v>0.2447347579016173</v>
       </c>
       <c r="T36">
-        <v>0.1455146915307838</v>
+        <v>0.2447347579016173</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H37">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I37">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J37">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.347459333333334</v>
+        <v>3.074156666666667</v>
       </c>
       <c r="N37">
-        <v>13.042378</v>
+        <v>9.22247</v>
       </c>
       <c r="O37">
-        <v>0.06431774725043436</v>
+        <v>0.04706671255241639</v>
       </c>
       <c r="P37">
-        <v>0.06431774725043435</v>
+        <v>0.0470667125524164</v>
       </c>
       <c r="Q37">
-        <v>12.00010650620178</v>
+        <v>11.43200985697778</v>
       </c>
       <c r="R37">
-        <v>108.000958555816</v>
+        <v>102.8880887128</v>
       </c>
       <c r="S37">
-        <v>0.02007796092795789</v>
+        <v>0.02014069907588666</v>
       </c>
       <c r="T37">
-        <v>0.02007796092795789</v>
+        <v>0.02014069907588667</v>
       </c>
     </row>
   </sheetData>
